--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_11-38.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_11-38.xlsx
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>فازلين مستورد 50مل</t>
+  </si>
+  <si>
+    <t>قصافات كبار لوكس</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
@@ -1323,7 +1329,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1343,13 +1349,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1361,7 +1367,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1375,7 +1381,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1387,7 +1393,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1395,51 +1401,77 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="26.25" customHeight="1">
-      <c r="K30" s="10">
-        <v>1483.8</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="11">
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c t="s" r="B30" s="7">
         <v>48</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c t="s" r="F31" s="12">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c t="s" r="H30" s="8">
         <v>49</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c t="s" r="I31" s="14">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9">
+        <v>30</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c t="s" r="N30" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="K31" s="10">
+        <v>1498.8</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="11">
         <v>50</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c t="s" r="F32" s="12">
+        <v>51</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c t="s" r="I32" s="14">
+        <v>52</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="92">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1525,10 +1557,13 @@
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:N32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
